--- a/Data/2019/Oferta de empleo Costa Rica 1 trimeste 2019.xlsx
+++ b/Data/2019/Oferta de empleo Costa Rica 1 trimeste 2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>Metadatos Cuadro 2</t>
   </si>
@@ -52,7 +52,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -63,7 +63,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -72,7 +72,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -83,7 +83,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -92,7 +92,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -107,7 +107,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -122,7 +122,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -132,7 +132,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -143,7 +143,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -158,7 +158,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -168,7 +168,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -182,7 +182,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -193,7 +193,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -204,7 +204,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -213,7 +213,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -224,7 +224,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -233,7 +233,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -264,7 +264,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -274,7 +274,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -283,7 +283,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -294,7 +294,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -303,7 +303,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -314,7 +314,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -323,7 +323,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -345,7 +345,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -354,7 +354,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -365,7 +365,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -374,7 +374,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -385,7 +385,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -394,7 +394,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -425,7 +425,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -434,7 +434,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -445,7 +445,7 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -454,7 +454,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -465,7 +465,7 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -474,7 +474,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -485,7 +485,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -494,7 +494,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -505,7 +505,7 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -514,7 +514,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -525,7 +525,7 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -534,7 +534,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -558,7 +558,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -574,7 +574,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -584,7 +584,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -595,7 +595,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -610,7 +610,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -620,7 +620,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -633,7 +633,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -644,7 +644,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -655,7 +655,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -664,7 +664,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -675,7 +675,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -684,7 +684,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -715,7 +715,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -724,7 +724,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -765,7 +765,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -774,7 +774,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -788,7 +788,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -797,7 +797,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -814,7 +814,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -823,7 +823,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -837,7 +837,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1027,30 +1027,6 @@
   </si>
   <si>
     <t>a/ Para mayor información visitar el siguiente sitio web: http://www.inec.go.cr/empleo/temas-especiales-de-empleo</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Fuente: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>INEC-Costa Rica. Encuesta Continua de Empleo (ECE), 2019.</t>
-    </r>
   </si>
   <si>
     <t>Cuadro 1</t>
@@ -1080,7 +1056,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1094,7 +1070,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1255,7 +1231,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1264,7 +1240,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1293,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,39 +1278,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1349,13 +1312,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1425,6 +1381,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1930,13 +1893,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2026,420 +1982,393 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="130">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="35" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2750,167 +2679,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="109" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="109" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="109" width="113.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="103" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="103" width="113.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="57"/>
-      <c r="B2" s="127" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="55"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="55"/>
+      <c r="B4" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="57"/>
-      <c r="B4" s="128" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="130" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="55"/>
+      <c r="B7" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="57"/>
-      <c r="B7" s="131" t="s">
+      <c r="C7" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="125"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="134"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="136" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="128"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="137"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="136" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="128"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="137"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="138" t="s">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2940,1273 +2869,1273 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="109" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="109" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="111" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="109" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="117" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="103" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="105" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="103" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="106"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39">
-      <c r="A4" s="57"/>
-      <c r="B4" s="112" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
+      <c r="A5" s="106"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
+      <c r="A6" s="106"/>
+      <c r="B6" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.9">
+      <c r="A7" s="106"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
-      <c r="A5" s="57"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
-      <c r="A6" s="57"/>
-      <c r="B6" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="77" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="80" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.899999999999995">
+      <c r="A8" s="106"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
+      <c r="A9" s="106"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="106"/>
+      <c r="B10" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="113">
+        <v>1329095</v>
+      </c>
+      <c r="D10" s="113">
+        <v>842671</v>
+      </c>
+      <c r="E10" s="113">
+        <v>491835.0217586719</v>
+      </c>
+      <c r="F10" s="113">
+        <v>434330.0303663186</v>
+      </c>
+      <c r="G10" s="114">
+        <v>88.30807306345719</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="106"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="106"/>
+      <c r="B12" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="113">
+        <v>232165</v>
+      </c>
+      <c r="D12" s="113">
+        <v>47098</v>
+      </c>
+      <c r="E12" s="113">
+        <v>320852.54366893356</v>
+      </c>
+      <c r="F12" s="113">
+        <v>322830.30468473147</v>
+      </c>
+      <c r="G12" s="87">
+        <v>100.61640808365809</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="106"/>
+      <c r="B13" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="115">
+        <v>232165</v>
+      </c>
+      <c r="D13" s="115">
+        <v>47098</v>
+      </c>
+      <c r="E13" s="115">
+        <v>320852.54366893356</v>
+      </c>
+      <c r="F13" s="115">
+        <v>322830.30468473147</v>
+      </c>
+      <c r="G13" s="90">
+        <v>100.61640808365809</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="106"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="106"/>
+      <c r="B15" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="113">
+        <v>312352</v>
+      </c>
+      <c r="D15" s="113">
+        <v>90176</v>
+      </c>
+      <c r="E15" s="113">
+        <v>457512.59909609065</v>
+      </c>
+      <c r="F15" s="113">
+        <v>341539.454884046</v>
+      </c>
+      <c r="G15" s="114">
+        <v>74.65137693668476</v>
+      </c>
+      <c r="H15" s="94"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="106"/>
+      <c r="B16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="115">
+        <v>152833</v>
+      </c>
+      <c r="D16" s="115">
+        <v>84039</v>
+      </c>
+      <c r="E16" s="115">
+        <v>481645.4617109374</v>
+      </c>
+      <c r="F16" s="115">
+        <v>325630.45488284813</v>
+      </c>
+      <c r="G16" s="116">
+        <v>67.60791510961592</v>
+      </c>
+      <c r="H16" s="94"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="106"/>
+      <c r="B17" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="115">
+        <v>135625</v>
+      </c>
+      <c r="D17" s="115">
+        <v>2873</v>
+      </c>
+      <c r="E17" s="115">
+        <v>343602.75507996493</v>
+      </c>
+      <c r="F17" s="115">
+        <v>334939.8428800197</v>
+      </c>
+      <c r="G17" s="90">
+        <v>97.47880013420463</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="106"/>
+      <c r="B18" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.899999999999995">
-      <c r="A8" s="57"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="57"/>
-      <c r="B10" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="118">
+      <c r="C18" s="115">
+        <v>23894</v>
+      </c>
+      <c r="D18" s="115">
+        <v>3264</v>
+      </c>
+      <c r="E18" s="115">
+        <v>913853.1628225147</v>
+      </c>
+      <c r="F18" s="115">
+        <v>722285.8078788808</v>
+      </c>
+      <c r="G18" s="90">
+        <v>79.03740308213614</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="106"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="106"/>
+      <c r="B20" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="113">
+        <v>777010</v>
+      </c>
+      <c r="D20" s="113">
+        <v>701914</v>
+      </c>
+      <c r="E20" s="113">
+        <v>553391.4199881773</v>
+      </c>
+      <c r="F20" s="113">
+        <v>452450.5593935116</v>
+      </c>
+      <c r="G20" s="114">
+        <v>81.75959059921418</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="106"/>
+      <c r="B21" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="115">
+        <v>210865</v>
+      </c>
+      <c r="D21" s="115">
+        <v>144302</v>
+      </c>
+      <c r="E21" s="115">
+        <v>460984.2853286891</v>
+      </c>
+      <c r="F21" s="115">
+        <v>272363.11968362826</v>
+      </c>
+      <c r="G21" s="116">
+        <v>59.082951057524454</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="106"/>
+      <c r="B22" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="115">
+        <v>112362</v>
+      </c>
+      <c r="D22" s="115">
+        <v>13108</v>
+      </c>
+      <c r="E22" s="115">
+        <v>400782.19424568495</v>
+      </c>
+      <c r="F22" s="115">
+        <v>422372.96274014</v>
+      </c>
+      <c r="G22" s="90">
+        <v>105.3871576143973</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="106"/>
+      <c r="B23" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="115">
+        <v>58836</v>
+      </c>
+      <c r="D23" s="115">
+        <v>76280</v>
+      </c>
+      <c r="E23" s="115">
+        <v>456010.5479897611</v>
+      </c>
+      <c r="F23" s="115">
+        <v>277486.29205343826</v>
+      </c>
+      <c r="G23" s="90">
+        <v>60.85084945440094</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="106"/>
+      <c r="B24" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="115">
+        <v>28181</v>
+      </c>
+      <c r="D24" s="115">
+        <v>23301</v>
+      </c>
+      <c r="E24" s="115">
+        <v>758124.7368494187</v>
+      </c>
+      <c r="F24" s="115">
+        <v>801257.5384624668</v>
+      </c>
+      <c r="G24" s="116">
+        <v>105.68940696913512</v>
+      </c>
+      <c r="H24" s="94"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="106"/>
+      <c r="B25" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="115">
+        <v>130076</v>
+      </c>
+      <c r="D25" s="115">
+        <v>60613</v>
+      </c>
+      <c r="E25" s="115">
+        <v>493457.8059633887</v>
+      </c>
+      <c r="F25" s="115">
+        <v>508480.29312672414</v>
+      </c>
+      <c r="G25" s="116">
+        <v>103.04433063613345</v>
+      </c>
+      <c r="H25" s="94"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="106"/>
+      <c r="B26" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="115">
+        <v>53459</v>
+      </c>
+      <c r="D26" s="115">
+        <v>35448</v>
+      </c>
+      <c r="E26" s="115">
+        <v>920664.3762530918</v>
+      </c>
+      <c r="F26" s="115">
+        <v>1141342.0139515935</v>
+      </c>
+      <c r="G26" s="116">
+        <v>123.96939030014529</v>
+      </c>
+      <c r="H26" s="94"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="106"/>
+      <c r="B27" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="115">
+        <v>68419</v>
+      </c>
+      <c r="D27" s="115">
+        <v>130941</v>
+      </c>
+      <c r="E27" s="115">
+        <v>993592.7540679378</v>
+      </c>
+      <c r="F27" s="115">
+        <v>817784.328456213</v>
+      </c>
+      <c r="G27" s="116">
+        <v>82.3057862598197</v>
+      </c>
+      <c r="H27" s="94"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="106"/>
+      <c r="B28" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="115">
+        <v>94717</v>
+      </c>
+      <c r="D28" s="115">
+        <v>74956</v>
+      </c>
+      <c r="E28" s="115">
+        <v>522059.75671615003</v>
+      </c>
+      <c r="F28" s="115">
+        <v>358619.5772833314</v>
+      </c>
+      <c r="G28" s="90">
+        <v>68.69320468965338</v>
+      </c>
+      <c r="H28" s="94"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="106"/>
+      <c r="B29" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="115">
+        <v>20095</v>
+      </c>
+      <c r="D29" s="115">
+        <v>142965</v>
+      </c>
+      <c r="E29" s="115">
+        <v>224277.26974131234</v>
+      </c>
+      <c r="F29" s="115">
+        <v>153398.90337765147</v>
+      </c>
+      <c r="G29" s="90">
+        <v>68.39699072250436</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="106"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="106"/>
+      <c r="B31" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="115">
+        <f>+C10-(C12+C15+C20)</f>
+      </c>
+      <c r="D31" s="115">
+        <f>+D10-(D12+D15+D20)</f>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="106"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="106"/>
+      <c r="B33" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="113">
         <v>1329095</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D33" s="113">
         <v>842671</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E33" s="113">
         <v>491835.0217586719</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F33" s="113">
         <v>434330.0303663186</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G33" s="114">
         <v>88.30807306345719</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="57"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="57"/>
-      <c r="B12" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="120">
-        <v>232165</v>
-      </c>
-      <c r="D12" s="120">
-        <v>47098</v>
-      </c>
-      <c r="E12" s="120">
-        <v>320852.54366893356</v>
-      </c>
-      <c r="F12" s="120">
-        <v>322830.30468473147</v>
-      </c>
-      <c r="G12" s="92">
-        <v>100.61640808365809</v>
-      </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="57"/>
-      <c r="B13" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="121">
-        <v>232165</v>
-      </c>
-      <c r="D13" s="121">
-        <v>47098</v>
-      </c>
-      <c r="E13" s="121">
-        <v>320852.54366893356</v>
-      </c>
-      <c r="F13" s="121">
-        <v>322830.30468473147</v>
-      </c>
-      <c r="G13" s="96">
-        <v>100.61640808365809</v>
-      </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="57"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="57"/>
-      <c r="B15" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="120">
-        <v>312352</v>
-      </c>
-      <c r="D15" s="120">
-        <v>90176</v>
-      </c>
-      <c r="E15" s="120">
-        <v>457512.59909609065</v>
-      </c>
-      <c r="F15" s="120">
-        <v>341539.454884046</v>
-      </c>
-      <c r="G15" s="123">
-        <v>74.65137693668476</v>
-      </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="57"/>
-      <c r="B16" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="121">
-        <v>152833</v>
-      </c>
-      <c r="D16" s="121">
-        <v>84039</v>
-      </c>
-      <c r="E16" s="121">
-        <v>481645.4617109374</v>
-      </c>
-      <c r="F16" s="121">
-        <v>325630.45488284813</v>
-      </c>
-      <c r="G16" s="122">
-        <v>67.60791510961592</v>
-      </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="57"/>
-      <c r="B17" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="121">
-        <v>135625</v>
-      </c>
-      <c r="D17" s="121">
-        <v>2873</v>
-      </c>
-      <c r="E17" s="121">
-        <v>343602.75507996493</v>
-      </c>
-      <c r="F17" s="121">
-        <v>334939.8428800197</v>
-      </c>
-      <c r="G17" s="96">
-        <v>97.47880013420463</v>
-      </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="57"/>
-      <c r="B18" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="121">
-        <v>23894</v>
-      </c>
-      <c r="D18" s="121">
-        <v>3264</v>
-      </c>
-      <c r="E18" s="121">
-        <v>913853.1628225147</v>
-      </c>
-      <c r="F18" s="121">
-        <v>722285.8078788808</v>
-      </c>
-      <c r="G18" s="96">
-        <v>79.03740308213614</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="57"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="57"/>
-      <c r="B20" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="120">
-        <v>777010</v>
-      </c>
-      <c r="D20" s="120">
-        <v>701914</v>
-      </c>
-      <c r="E20" s="120">
-        <v>553391.4199881773</v>
-      </c>
-      <c r="F20" s="120">
-        <v>452450.5593935116</v>
-      </c>
-      <c r="G20" s="123">
-        <v>81.75959059921418</v>
-      </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="57"/>
-      <c r="B21" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="121">
-        <v>210865</v>
-      </c>
-      <c r="D21" s="121">
-        <v>144302</v>
-      </c>
-      <c r="E21" s="121">
-        <v>460984.2853286891</v>
-      </c>
-      <c r="F21" s="121">
-        <v>272363.11968362826</v>
-      </c>
-      <c r="G21" s="122">
-        <v>59.082951057524454</v>
-      </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="57"/>
-      <c r="B22" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="121">
-        <v>112362</v>
-      </c>
-      <c r="D22" s="121">
-        <v>13108</v>
-      </c>
-      <c r="E22" s="121">
-        <v>400782.19424568495</v>
-      </c>
-      <c r="F22" s="121">
-        <v>422372.96274014</v>
-      </c>
-      <c r="G22" s="96">
-        <v>105.3871576143973</v>
-      </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="57"/>
-      <c r="B23" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="121">
-        <v>58836</v>
-      </c>
-      <c r="D23" s="121">
-        <v>76280</v>
-      </c>
-      <c r="E23" s="121">
-        <v>456010.5479897611</v>
-      </c>
-      <c r="F23" s="121">
-        <v>277486.29205343826</v>
-      </c>
-      <c r="G23" s="96">
-        <v>60.85084945440094</v>
-      </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="57"/>
-      <c r="B24" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="121">
-        <v>28181</v>
-      </c>
-      <c r="D24" s="121">
-        <v>23301</v>
-      </c>
-      <c r="E24" s="121">
-        <v>758124.7368494187</v>
-      </c>
-      <c r="F24" s="121">
-        <v>801257.5384624668</v>
-      </c>
-      <c r="G24" s="122">
-        <v>105.68940696913512</v>
-      </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="57"/>
-      <c r="B25" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="121">
-        <v>130076</v>
-      </c>
-      <c r="D25" s="121">
-        <v>60613</v>
-      </c>
-      <c r="E25" s="121">
-        <v>493457.8059633887</v>
-      </c>
-      <c r="F25" s="121">
-        <v>508480.29312672414</v>
-      </c>
-      <c r="G25" s="122">
-        <v>103.04433063613345</v>
-      </c>
-      <c r="H25" s="100"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="57"/>
-      <c r="B26" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="121">
-        <v>53459</v>
-      </c>
-      <c r="D26" s="121">
-        <v>35448</v>
-      </c>
-      <c r="E26" s="121">
-        <v>920664.3762530918</v>
-      </c>
-      <c r="F26" s="121">
-        <v>1141342.0139515935</v>
-      </c>
-      <c r="G26" s="122">
-        <v>123.96939030014529</v>
-      </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="57"/>
-      <c r="B27" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="121">
-        <v>68419</v>
-      </c>
-      <c r="D27" s="121">
-        <v>130941</v>
-      </c>
-      <c r="E27" s="121">
-        <v>993592.7540679378</v>
-      </c>
-      <c r="F27" s="121">
-        <v>817784.328456213</v>
-      </c>
-      <c r="G27" s="122">
-        <v>82.3057862598197</v>
-      </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="57"/>
-      <c r="B28" s="93" t="s">
+      <c r="H33" s="94"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="106"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="106"/>
+      <c r="B35" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="121">
-        <v>94717</v>
-      </c>
-      <c r="D28" s="121">
-        <v>74956</v>
-      </c>
-      <c r="E28" s="121">
-        <v>522059.75671615003</v>
-      </c>
-      <c r="F28" s="121">
-        <v>358619.5772833314</v>
-      </c>
-      <c r="G28" s="96">
-        <v>68.69320468965338</v>
-      </c>
-      <c r="H28" s="100"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="57"/>
-      <c r="B29" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="121">
-        <v>20095</v>
-      </c>
-      <c r="D29" s="121">
-        <v>142965</v>
-      </c>
-      <c r="E29" s="121">
-        <v>224277.26974131234</v>
-      </c>
-      <c r="F29" s="121">
-        <v>153398.90337765147</v>
-      </c>
-      <c r="G29" s="96">
-        <v>68.39699072250436</v>
-      </c>
-      <c r="H29" s="100"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="57"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="57"/>
-      <c r="B31" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="121">
-        <f>+C10-(C12+C15+C20)</f>
-      </c>
-      <c r="D31" s="121">
-        <f>+D10-(D12+D15+D20)</f>
-      </c>
-      <c r="E31" s="121" t="s">
+      <c r="C35" s="115">
+        <v>252703</v>
+      </c>
+      <c r="D35" s="115">
+        <v>201680</v>
+      </c>
+      <c r="E35" s="115">
+        <v>992860.798275775</v>
+      </c>
+      <c r="F35" s="115">
+        <v>979947.047447478</v>
+      </c>
+      <c r="G35" s="116">
+        <v>98.69933923761283</v>
+      </c>
+      <c r="H35" s="94"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="106"/>
+      <c r="B36" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="115">
+        <v>734475</v>
+      </c>
+      <c r="D36" s="115">
+        <v>437291</v>
+      </c>
+      <c r="E36" s="115">
+        <v>396557.04276502365</v>
+      </c>
+      <c r="F36" s="115">
+        <v>266559.1286536631</v>
+      </c>
+      <c r="G36" s="90">
+        <v>67.2183569846748</v>
+      </c>
+      <c r="H36" s="94"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="106"/>
+      <c r="B37" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="88">
+        <v>331515</v>
+      </c>
+      <c r="D37" s="88">
+        <v>195736</v>
+      </c>
+      <c r="E37" s="88">
+        <v>289553.84792677</v>
+      </c>
+      <c r="F37" s="88">
+        <v>209664.74661297724</v>
+      </c>
+      <c r="G37" s="90">
+        <v>72.40958740980116</v>
+      </c>
+      <c r="H37" s="94"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="106"/>
+      <c r="B38" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="115">
+        <v>10402</v>
+      </c>
+      <c r="D38" s="115">
+        <v>7964</v>
+      </c>
+      <c r="E38" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="121" t="s">
+      <c r="F38" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="122" t="s">
+      <c r="G38" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="100"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="57"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="57"/>
-      <c r="B33" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="118">
+      <c r="H38" s="94"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="106"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="106"/>
+      <c r="B40" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="113">
         <v>1329095</v>
       </c>
-      <c r="D33" s="118">
+      <c r="D40" s="113">
         <v>842671</v>
       </c>
-      <c r="E33" s="118">
+      <c r="E40" s="113">
         <v>491835.0217586719</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F40" s="113">
         <v>434330.0303663186</v>
       </c>
-      <c r="G33" s="119">
+      <c r="G40" s="114">
         <v>88.30807306345719</v>
       </c>
-      <c r="H33" s="100"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="57"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="57"/>
-      <c r="B35" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="121">
-        <v>252703</v>
-      </c>
-      <c r="D35" s="121">
-        <v>201680</v>
-      </c>
-      <c r="E35" s="121">
-        <v>992860.798275775</v>
-      </c>
-      <c r="F35" s="121">
-        <v>979947.047447478</v>
-      </c>
-      <c r="G35" s="122">
-        <v>98.69933923761283</v>
-      </c>
-      <c r="H35" s="100"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="57"/>
-      <c r="B36" s="93" t="s">
+      <c r="H40" s="94"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="106"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="106"/>
+      <c r="B42" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="115">
+        <v>141102</v>
+      </c>
+      <c r="D42" s="115">
+        <v>142109</v>
+      </c>
+      <c r="E42" s="115">
+        <v>1000167.4014440897</v>
+      </c>
+      <c r="F42" s="115">
+        <v>1045560.6814480685</v>
+      </c>
+      <c r="G42" s="116">
+        <v>104.5385682375208</v>
+      </c>
+      <c r="H42" s="94"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="106"/>
+      <c r="B43" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="115">
+        <v>1187993</v>
+      </c>
+      <c r="D43" s="115">
+        <v>700562</v>
+      </c>
+      <c r="E43" s="115">
+        <v>426848.0613683595</v>
+      </c>
+      <c r="F43" s="115">
+        <v>301694.21877974056</v>
+      </c>
+      <c r="G43" s="116">
+        <v>70.67953355875402</v>
+      </c>
+      <c r="H43" s="94"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="106"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="106"/>
+      <c r="B45" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="113">
+        <v>1329095</v>
+      </c>
+      <c r="D45" s="113">
+        <v>842671</v>
+      </c>
+      <c r="E45" s="113">
+        <v>491835.0217586719</v>
+      </c>
+      <c r="F45" s="113">
+        <v>434330.0303663186</v>
+      </c>
+      <c r="G45" s="114">
+        <v>88.30807306345719</v>
+      </c>
+      <c r="H45" s="94"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="106"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="106"/>
+      <c r="B47" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="115">
+        <v>971469</v>
+      </c>
+      <c r="D47" s="115">
+        <v>651763</v>
+      </c>
+      <c r="E47" s="115">
+        <v>535018.5433404032</v>
+      </c>
+      <c r="F47" s="115">
+        <v>483879.9620897026</v>
+      </c>
+      <c r="G47" s="116">
+        <v>90.441717976462</v>
+      </c>
+      <c r="H47" s="94"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="106"/>
+      <c r="B48" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="115">
+        <v>279780</v>
+      </c>
+      <c r="D48" s="115">
+        <v>146679</v>
+      </c>
+      <c r="E48" s="115">
+        <v>287030.737242761</v>
+      </c>
+      <c r="F48" s="115">
+        <v>188166.11281352316</v>
+      </c>
+      <c r="G48" s="116">
+        <v>65.55608455772406</v>
+      </c>
+      <c r="H48" s="94"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="106"/>
+      <c r="B49" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="115">
+        <v>60440</v>
+      </c>
+      <c r="D49" s="115">
+        <v>14940</v>
+      </c>
+      <c r="E49" s="115">
+        <v>795561.9724341409</v>
+      </c>
+      <c r="F49" s="115">
+        <v>706731.2797322787</v>
+      </c>
+      <c r="G49" s="116">
+        <v>88.83422086778842</v>
+      </c>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="106"/>
+      <c r="B50" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="121">
-        <v>734475</v>
-      </c>
-      <c r="D36" s="121">
-        <v>437291</v>
-      </c>
-      <c r="E36" s="121">
-        <v>396557.04276502365</v>
-      </c>
-      <c r="F36" s="121">
-        <v>266559.1286536631</v>
-      </c>
-      <c r="G36" s="96">
-        <v>67.2183569846748</v>
-      </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="57"/>
-      <c r="B37" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="94">
-        <v>331515</v>
-      </c>
-      <c r="D37" s="94">
-        <v>195736</v>
-      </c>
-      <c r="E37" s="94">
-        <v>289553.84792677</v>
-      </c>
-      <c r="F37" s="94">
-        <v>209664.74661297724</v>
-      </c>
-      <c r="G37" s="96">
-        <v>72.40958740980116</v>
-      </c>
-      <c r="H37" s="100"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="57"/>
-      <c r="B38" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="121">
-        <v>10402</v>
-      </c>
-      <c r="D38" s="121">
-        <v>7964</v>
-      </c>
-      <c r="E38" s="121" t="s">
+      <c r="C50" s="115">
+        <v>17406</v>
+      </c>
+      <c r="D50" s="115">
+        <v>29289</v>
+      </c>
+      <c r="E50" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="121" t="s">
+      <c r="F50" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="122" t="s">
+      <c r="G50" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="100"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="57"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="57"/>
-      <c r="B40" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="118">
-        <v>1329095</v>
-      </c>
-      <c r="D40" s="118">
-        <v>842671</v>
-      </c>
-      <c r="E40" s="118">
-        <v>491835.0217586719</v>
-      </c>
-      <c r="F40" s="118">
-        <v>434330.0303663186</v>
-      </c>
-      <c r="G40" s="119">
-        <v>88.30807306345719</v>
-      </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="57"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="57"/>
-      <c r="B42" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="121">
-        <v>141102</v>
-      </c>
-      <c r="D42" s="121">
-        <v>142109</v>
-      </c>
-      <c r="E42" s="121">
-        <v>1000167.4014440897</v>
-      </c>
-      <c r="F42" s="121">
-        <v>1045560.6814480685</v>
-      </c>
-      <c r="G42" s="122">
-        <v>104.5385682375208</v>
-      </c>
-      <c r="H42" s="100"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="57"/>
-      <c r="B43" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="121">
-        <v>1187993</v>
-      </c>
-      <c r="D43" s="121">
-        <v>700562</v>
-      </c>
-      <c r="E43" s="121">
-        <v>426848.0613683595</v>
-      </c>
-      <c r="F43" s="121">
-        <v>301694.21877974056</v>
-      </c>
-      <c r="G43" s="122">
-        <v>70.67953355875402</v>
-      </c>
-      <c r="H43" s="100"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="57"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="57"/>
-      <c r="B45" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="118">
-        <v>1329095</v>
-      </c>
-      <c r="D45" s="118">
-        <v>842671</v>
-      </c>
-      <c r="E45" s="118">
-        <v>491835.0217586719</v>
-      </c>
-      <c r="F45" s="118">
-        <v>434330.0303663186</v>
-      </c>
-      <c r="G45" s="119">
-        <v>88.30807306345719</v>
-      </c>
-      <c r="H45" s="100"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="57"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="57"/>
-      <c r="B47" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="121">
-        <v>971469</v>
-      </c>
-      <c r="D47" s="121">
-        <v>651763</v>
-      </c>
-      <c r="E47" s="121">
-        <v>535018.5433404032</v>
-      </c>
-      <c r="F47" s="121">
-        <v>483879.9620897026</v>
-      </c>
-      <c r="G47" s="122">
-        <v>90.441717976462</v>
-      </c>
-      <c r="H47" s="100"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="57"/>
-      <c r="B48" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="121">
-        <v>279780</v>
-      </c>
-      <c r="D48" s="121">
-        <v>146679</v>
-      </c>
-      <c r="E48" s="121">
-        <v>287030.737242761</v>
-      </c>
-      <c r="F48" s="121">
-        <v>188166.11281352316</v>
-      </c>
-      <c r="G48" s="122">
-        <v>65.55608455772406</v>
-      </c>
-      <c r="H48" s="100"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="57"/>
-      <c r="B49" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="121">
-        <v>60440</v>
-      </c>
-      <c r="D49" s="121">
-        <v>14940</v>
-      </c>
-      <c r="E49" s="121">
-        <v>795561.9724341409</v>
-      </c>
-      <c r="F49" s="121">
-        <v>706731.2797322787</v>
-      </c>
-      <c r="G49" s="122">
-        <v>88.83422086778842</v>
-      </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="57"/>
-      <c r="B50" s="93" t="s">
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="106"/>
+      <c r="B51" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="121">
-        <v>17406</v>
-      </c>
-      <c r="D50" s="121">
-        <v>29289</v>
-      </c>
-      <c r="E50" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15">
-      <c r="A51" s="57"/>
-      <c r="B51" s="100" t="s">
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="106"/>
+      <c r="B52" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="57"/>
-      <c r="B52" s="100" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="106"/>
+      <c r="B53" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="57"/>
-      <c r="B53" s="100" t="s">
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="106"/>
+      <c r="B54" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="57"/>
-      <c r="B54" s="100" t="s">
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="106"/>
+      <c r="B55" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="57"/>
-      <c r="B55" s="100" t="s">
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="106"/>
+      <c r="B56" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="57"/>
-      <c r="B56" s="100" t="s">
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="106"/>
+      <c r="B57" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="57"/>
-      <c r="B57" s="100" t="s">
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="106"/>
+      <c r="B58" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="106"/>
+      <c r="B59" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="106"/>
+      <c r="B60" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="57"/>
-      <c r="B58" s="124" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="57"/>
-      <c r="B59" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="57"/>
-      <c r="B60" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -4247,1591 +4176,1591 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="109" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="109" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="110" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="111" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="103" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="104" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="105" width="16.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25" customFormat="1" s="9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="66" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25" customFormat="1" s="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
-      <c r="A5" s="57"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
-      <c r="A6" s="57"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="57"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="73" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.45">
-      <c r="A8" s="57"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="73" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="76" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30.600000000000005" customFormat="1" s="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30.600000000000005" customFormat="1" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77" t="s">
+      <c r="I9" s="76"/>
+      <c r="J9" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="80" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="79" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
-      <c r="A10" s="57"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="79" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="81"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75" customFormat="1" s="9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="57"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="85">
         <v>279559</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="85">
         <v>359911</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>271905.53075640724</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <v>193175.06558070818</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>28.955080448963557</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="86">
         <v>1049536</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="85">
         <v>482760</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="85">
         <v>563254.0877071213</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="85">
         <v>613713.0388442582</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="87">
         <v>-8.95847047334246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="57"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="88"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="87"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="57"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="85">
         <v>78748</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="85">
         <v>22250</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="85">
         <v>212105.28595572582</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="85">
         <v>170278.6761141103</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="85">
         <v>19.71973949312431</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="86">
         <v>153417</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="85">
         <v>24848</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="85">
         <v>331006.48035719513</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="85">
         <v>480107.92415985436</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="87">
         <v>-45.04487152087208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="57"/>
-      <c r="B15" s="93" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="88">
         <v>78748</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="88">
         <v>22250</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="88">
         <v>212105.28595572582</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="88">
         <v>170278.6761141103</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="88">
         <v>19.71973949312431</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="89">
         <v>153417</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="88">
         <v>24848</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="88">
         <v>331006.48035719513</v>
       </c>
-      <c r="K15" s="94">
+      <c r="K15" s="88">
         <v>480107.92415985436</v>
       </c>
-      <c r="L15" s="96">
+      <c r="L15" s="90">
         <v>-45.04487152087208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="57"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="96"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="57"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="85">
         <v>43842</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="85">
         <v>33345</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="85">
         <v>271335.7160255031</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="85">
         <v>125274.55444541774</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="85">
         <v>53.83042222364745</v>
       </c>
-      <c r="H17" s="91">
+      <c r="H17" s="86">
         <v>268510</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="85">
         <v>56831</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="85">
         <v>491312.0347864788</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="85">
         <v>447055.08187813015</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="87">
         <v>9.007911423863746</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="57"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="88">
         <v>18932</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="88">
         <v>31121</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="88">
         <v>319319.16042905836</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="88">
         <v>118129.20080528058</v>
       </c>
-      <c r="G18" s="94">
+      <c r="G18" s="88">
         <v>63.00591525840342</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="89">
         <v>133901</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="88">
         <v>52918</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="88">
         <v>454610.46945738944</v>
       </c>
-      <c r="K18" s="94">
+      <c r="K18" s="88">
         <v>418116.64053627074</v>
       </c>
-      <c r="L18" s="96">
+      <c r="L18" s="90">
         <v>8.027494167628106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="57"/>
-      <c r="B19" s="93" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="88">
         <v>23968</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="88">
         <v>1257</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="88">
         <v>223106.93972925254</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="88">
         <v>186784.40496333898</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="88">
         <v>16.28032494641006</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19" s="89">
         <v>111657</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="88">
         <v>1616</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="88">
         <v>332656.11168861313</v>
       </c>
-      <c r="K19" s="94">
+      <c r="K19" s="88">
         <v>467951.20072627097</v>
       </c>
-      <c r="L19" s="96">
+      <c r="L19" s="90">
         <v>-40.671156874551116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="57"/>
-      <c r="B20" s="93" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="88">
         <v>942</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="88">
         <v>967</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="88">
         <v>435462.9501078749</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="88">
         <v>236666.0085315408</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="88">
         <v>45.65186120359658</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="89">
         <v>22952</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="88">
         <v>2297</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="88">
         <v>1011419.5178808407</v>
       </c>
-      <c r="K20" s="94">
+      <c r="K20" s="88">
         <v>926723.9210564506</v>
       </c>
-      <c r="L20" s="96">
+      <c r="L20" s="90">
         <v>8.37393340024198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="57"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="96"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="57"/>
-      <c r="B22" s="89" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="85">
         <v>156969</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="85">
         <v>303583</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="85">
         <v>298577.300686753</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="85">
         <v>201307.19327787834</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="85">
         <v>32.57786415281577</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="86">
         <v>620041</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="85">
         <v>398331</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="85">
         <v>641526.5591043053</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="85">
         <v>644310.9490518261</v>
       </c>
-      <c r="L22" s="92">
+      <c r="L22" s="87">
         <v>-0.4340256701777626</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="57"/>
-      <c r="B23" s="93" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="88">
         <v>33838</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="88">
         <v>66095</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="88">
         <v>252437.7586337501</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="88">
         <v>103566.31032641281</v>
       </c>
-      <c r="G23" s="94">
+      <c r="G23" s="88">
         <v>58.973526430064595</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="89">
         <v>177027</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="88">
         <v>78207</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="88">
         <v>461988.34501406713</v>
       </c>
-      <c r="K23" s="94">
+      <c r="K23" s="88">
         <v>392420.0893343576</v>
       </c>
-      <c r="L23" s="96">
+      <c r="L23" s="90">
         <v>15.05844388294931</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="57"/>
-      <c r="B24" s="93" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="88">
         <v>11219</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="88">
         <v>34261</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="88">
         <v>282929.5659167021</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="88">
         <v>119627.98652523635</v>
       </c>
-      <c r="G24" s="94">
+      <c r="G24" s="88">
         <v>57.71810339522584</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="89">
         <v>47617</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="88">
         <v>42019</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="88">
         <v>464411.35788218095</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="88">
         <v>373007.96748896985</v>
       </c>
-      <c r="L24" s="96">
+      <c r="L24" s="90">
         <v>19.681557920984293</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="57"/>
-      <c r="B25" s="93" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="88">
         <v>28464</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="88">
         <v>18493</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="88">
         <v>233968.84776108386</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="88">
         <v>361958.90363559505</v>
       </c>
-      <c r="G25" s="94">
+      <c r="G25" s="88">
         <v>-54.703887760821736</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="89">
         <v>101612</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="88">
         <v>42120</v>
       </c>
-      <c r="J25" s="94">
+      <c r="J25" s="88">
         <v>538874.6386277721</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="88">
         <v>470591.4127806564</v>
       </c>
-      <c r="L25" s="96">
+      <c r="L25" s="90">
         <v>12.671449155780804</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="57"/>
-      <c r="B26" s="93" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="88">
         <v>12915</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="88">
         <v>40063</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="88">
         <v>650645.4733256254</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="88">
         <v>566380.3308942983</v>
       </c>
-      <c r="G26" s="94">
+      <c r="G26" s="88">
         <v>12.951007251403004</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="89">
         <v>55504</v>
       </c>
-      <c r="I26" s="94">
+      <c r="I26" s="88">
         <v>90878</v>
       </c>
-      <c r="J26" s="94">
+      <c r="J26" s="88">
         <v>1079951.1846794717</v>
       </c>
-      <c r="K26" s="94">
+      <c r="K26" s="88">
         <v>884424.1804713953</v>
       </c>
-      <c r="L26" s="96">
+      <c r="L26" s="90">
         <v>18.10517058380825</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="57"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="88">
         <v>27301</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="88">
         <v>39951</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="88">
         <v>224113.22042256917</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="88">
         <v>114576.12187314451</v>
       </c>
-      <c r="G27" s="94">
+      <c r="G27" s="88">
         <v>48.87578624004896</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="89">
         <v>67416</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="88">
         <v>35005</v>
       </c>
-      <c r="J27" s="94">
+      <c r="J27" s="88">
         <v>666014.5599010492</v>
       </c>
-      <c r="K27" s="94">
+      <c r="K27" s="88">
         <v>662057.2325796512</v>
       </c>
-      <c r="L27" s="96">
+      <c r="L27" s="90">
         <v>0.5941803017018153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="57"/>
-      <c r="B28" s="93" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="88">
         <v>10086</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="88">
         <v>98254</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="88">
         <v>106191.04470064724</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="88">
         <v>104691.93757515067</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="88">
         <v>1.41170767245256</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="89">
         <v>10009</v>
       </c>
-      <c r="I28" s="94">
+      <c r="I28" s="88">
         <v>44711</v>
       </c>
-      <c r="J28" s="94">
+      <c r="J28" s="88">
         <v>324737.3927802449</v>
       </c>
-      <c r="K28" s="94">
+      <c r="K28" s="88">
         <v>225550.1511075232</v>
       </c>
-      <c r="L28" s="96">
+      <c r="L28" s="90">
         <v>30.543831378187882</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="57"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="88">
         <v>33146</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="88">
         <v>6466</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="88">
         <v>357207.506934417</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="88">
         <v>568487.2632772406</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="88">
         <v>-59.14762490745032</v>
       </c>
-      <c r="H29" s="95">
+      <c r="H29" s="89">
         <v>160856</v>
       </c>
-      <c r="I29" s="94">
+      <c r="I29" s="88">
         <v>65391</v>
       </c>
-      <c r="J29" s="94">
+      <c r="J29" s="88">
         <v>726445.0768626988</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="88">
         <v>953034.8113522136</v>
       </c>
-      <c r="L29" s="96">
+      <c r="L29" s="90">
         <v>-31.191585118600955</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="57"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="96"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="57"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C31" s="88">
         <v>0</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="88">
         <v>733</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="94" t="s">
+      <c r="G31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="95">
+      <c r="H31" s="89">
         <v>7568</v>
       </c>
-      <c r="I31" s="94">
+      <c r="I31" s="88">
         <v>2750</v>
       </c>
-      <c r="J31" s="94" t="s">
+      <c r="J31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="94" t="s">
+      <c r="K31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="96" t="s">
+      <c r="L31" s="90" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="57"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="96"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="57"/>
-      <c r="B33" s="85" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="85">
         <v>279559</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="85">
         <v>359911</v>
       </c>
-      <c r="E33" s="86">
+      <c r="E33" s="85">
         <v>271905.53075640724</v>
       </c>
-      <c r="F33" s="86">
+      <c r="F33" s="85">
         <v>193175.06558070818</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="85">
         <v>28.955080448963557</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="86">
         <v>1049536</v>
       </c>
-      <c r="I33" s="86">
+      <c r="I33" s="85">
         <v>482760</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="85">
         <v>563254.0877071213</v>
       </c>
-      <c r="K33" s="86">
+      <c r="K33" s="85">
         <v>613713.0388442582</v>
       </c>
-      <c r="L33" s="88">
+      <c r="L33" s="87">
         <v>-8.95847047334246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="57"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="88"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="87"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="57"/>
-      <c r="B35" s="93" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="88">
         <v>34465</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="88">
         <v>49932</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="88">
         <v>575243.891223037</v>
       </c>
-      <c r="F35" s="94">
+      <c r="F35" s="88">
         <v>598724.1662171624</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="88">
         <v>-4.081794757386036</v>
       </c>
-      <c r="H35" s="95">
+      <c r="H35" s="89">
         <v>218238</v>
       </c>
-      <c r="I35" s="94">
+      <c r="I35" s="88">
         <v>151748</v>
       </c>
-      <c r="J35" s="94">
+      <c r="J35" s="88">
         <v>1085490.6085216503</v>
       </c>
-      <c r="K35" s="94">
+      <c r="K35" s="88">
         <v>1076987.5762282086</v>
       </c>
-      <c r="L35" s="96">
+      <c r="L35" s="90">
         <v>0.783335408587472</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="57"/>
-      <c r="B36" s="93" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="88">
         <v>139235</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="88">
         <v>198681</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="88">
         <v>268983.424924641</v>
       </c>
-      <c r="F36" s="94">
+      <c r="F36" s="88">
         <v>129205.49311712684</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="88">
         <v>51.96525839712044</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="89">
         <v>595240</v>
       </c>
-      <c r="I36" s="94">
+      <c r="I36" s="88">
         <v>238610</v>
       </c>
-      <c r="J36" s="94">
+      <c r="J36" s="88">
         <v>396307.97921222687</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="88">
         <v>375429.89481333335</v>
       </c>
-      <c r="L36" s="96">
+      <c r="L36" s="90">
         <v>5.268146364449831</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="57"/>
-      <c r="B37" s="93" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="88">
         <v>105859</v>
       </c>
-      <c r="D37" s="94">
+      <c r="D37" s="88">
         <v>109892</v>
       </c>
-      <c r="E37" s="94">
+      <c r="E37" s="88">
         <v>147202.25848022423</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="88">
         <v>108883.85959846611</v>
       </c>
-      <c r="G37" s="94">
+      <c r="G37" s="88">
         <v>26.03112158561479</v>
       </c>
-      <c r="H37" s="95">
+      <c r="H37" s="89">
         <v>225656</v>
       </c>
-      <c r="I37" s="94">
+      <c r="I37" s="88">
         <v>85844</v>
       </c>
-      <c r="J37" s="94">
+      <c r="J37" s="88">
         <v>320147.0255522663</v>
       </c>
-      <c r="K37" s="94">
+      <c r="K37" s="88">
         <v>302585.3128380112</v>
       </c>
-      <c r="L37" s="96">
+      <c r="L37" s="90">
         <v>5.485514876785265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="57"/>
-      <c r="B38" s="93" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="94">
+      <c r="C38" s="88">
         <v>0</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="88">
         <v>1406</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="95">
+      <c r="H38" s="89">
         <v>10402</v>
       </c>
-      <c r="I38" s="94">
+      <c r="I38" s="88">
         <v>6558</v>
       </c>
-      <c r="J38" s="94" t="s">
+      <c r="J38" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="94" t="s">
+      <c r="K38" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="96" t="s">
+      <c r="L38" s="90" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="57"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="96"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="57"/>
-      <c r="B40" s="85" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="86">
+      <c r="C40" s="85">
         <v>279559</v>
       </c>
-      <c r="D40" s="86">
+      <c r="D40" s="85">
         <v>359911</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="85">
         <v>271905.53075640724</v>
       </c>
-      <c r="F40" s="86">
+      <c r="F40" s="85">
         <v>193175.06558070818</v>
       </c>
-      <c r="G40" s="86">
+      <c r="G40" s="85">
         <v>28.955080448963557</v>
       </c>
-      <c r="H40" s="87">
+      <c r="H40" s="86">
         <v>1049536</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="85">
         <v>482760</v>
       </c>
-      <c r="J40" s="86">
+      <c r="J40" s="85">
         <v>563254.0877071213</v>
       </c>
-      <c r="K40" s="86">
+      <c r="K40" s="85">
         <v>613713.0388442582</v>
       </c>
-      <c r="L40" s="88">
+      <c r="L40" s="87">
         <v>-8.95847047334246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="57"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="92"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="87"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="57"/>
-      <c r="B42" s="93" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="94">
+      <c r="C42" s="88">
         <v>14347</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="88">
         <v>25232</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="88">
         <v>676881.7565664765</v>
       </c>
-      <c r="F42" s="94">
+      <c r="F42" s="88">
         <v>820404.5788864676</v>
       </c>
-      <c r="G42" s="94">
+      <c r="G42" s="88">
         <v>-21.203529409334244</v>
       </c>
-      <c r="H42" s="95">
+      <c r="H42" s="89">
         <v>126755</v>
       </c>
-      <c r="I42" s="94">
+      <c r="I42" s="88">
         <v>116877</v>
       </c>
-      <c r="J42" s="94">
+      <c r="J42" s="88">
         <v>1064883.7936514956</v>
       </c>
-      <c r="K42" s="94">
+      <c r="K42" s="88">
         <v>1060331.8769530081</v>
       </c>
-      <c r="L42" s="96">
+      <c r="L42" s="90">
         <v>0.4274566601186515</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="57"/>
-      <c r="B43" s="93" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="94">
+      <c r="C43" s="88">
         <v>265212</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="88">
         <v>334679</v>
       </c>
-      <c r="E43" s="94">
+      <c r="E43" s="88">
         <v>245806.81873551395</v>
       </c>
-      <c r="F43" s="94">
+      <c r="F43" s="88">
         <v>140897.37765852688</v>
       </c>
-      <c r="G43" s="94">
+      <c r="G43" s="88">
         <v>42.6796301325834</v>
       </c>
-      <c r="H43" s="95">
+      <c r="H43" s="89">
         <v>922781</v>
       </c>
-      <c r="I43" s="94">
+      <c r="I43" s="88">
         <v>365883</v>
       </c>
-      <c r="J43" s="94">
+      <c r="J43" s="88">
         <v>456162.4717348562</v>
       </c>
-      <c r="K43" s="94">
+      <c r="K43" s="88">
         <v>429977.54544093995</v>
       </c>
-      <c r="L43" s="96">
+      <c r="L43" s="90">
         <v>5.7402631554347145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="57"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="96"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="57"/>
-      <c r="B45" s="85" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="85">
         <v>279559</v>
       </c>
-      <c r="D45" s="86">
+      <c r="D45" s="85">
         <v>359911</v>
       </c>
-      <c r="E45" s="86">
+      <c r="E45" s="85">
         <v>271905.53075640724</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F45" s="85">
         <v>193175.06558070818</v>
       </c>
-      <c r="G45" s="86">
+      <c r="G45" s="85">
         <v>28.955080448963557</v>
       </c>
-      <c r="H45" s="87">
+      <c r="H45" s="86">
         <v>1049536</v>
       </c>
-      <c r="I45" s="86">
+      <c r="I45" s="85">
         <v>482760</v>
       </c>
-      <c r="J45" s="86">
+      <c r="J45" s="85">
         <v>563254.0877071213</v>
       </c>
-      <c r="K45" s="86">
+      <c r="K45" s="85">
         <v>613713.0388442582</v>
       </c>
-      <c r="L45" s="88">
+      <c r="L45" s="87">
         <v>-8.95847047334246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="57"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="92"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="87"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="57"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="94">
+      <c r="C47" s="88">
         <v>140172</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="88">
         <v>226645</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="88">
         <v>333447.1586259132</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="88">
         <v>222153.59878273855</v>
       </c>
-      <c r="G47" s="94">
+      <c r="G47" s="88">
         <v>33.37667062505468</v>
       </c>
-      <c r="H47" s="95">
+      <c r="H47" s="89">
         <v>831297</v>
       </c>
-      <c r="I47" s="94">
+      <c r="I47" s="88">
         <v>425118</v>
       </c>
-      <c r="J47" s="94">
+      <c r="J47" s="88">
         <v>602490.8266742389</v>
       </c>
-      <c r="K47" s="94">
+      <c r="K47" s="88">
         <v>629846.7422800572</v>
       </c>
-      <c r="L47" s="96">
+      <c r="L47" s="90">
         <v>-4.540470061066897</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="57"/>
-      <c r="B48" s="93" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="94">
+      <c r="C48" s="88">
         <v>115721</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="88">
         <v>107787</v>
       </c>
-      <c r="E48" s="94">
+      <c r="E48" s="88">
         <v>179015.0240694191</v>
       </c>
-      <c r="F48" s="94">
+      <c r="F48" s="88">
         <v>122609.07933992596</v>
       </c>
-      <c r="G48" s="94">
+      <c r="G48" s="88">
         <v>31.509056305586864</v>
       </c>
-      <c r="H48" s="95">
+      <c r="H48" s="89">
         <v>164059</v>
       </c>
-      <c r="I48" s="94">
+      <c r="I48" s="88">
         <v>38892</v>
       </c>
-      <c r="J48" s="94">
+      <c r="J48" s="88">
         <v>306323.66126986756</v>
       </c>
-      <c r="K48" s="94">
+      <c r="K48" s="88">
         <v>298388.4077769837</v>
       </c>
-      <c r="L48" s="96">
+      <c r="L48" s="90">
         <v>2.59048010199023</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="57"/>
-      <c r="B49" s="93" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="94">
+      <c r="C49" s="88">
         <v>11944</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="88">
         <v>4254</v>
       </c>
-      <c r="E49" s="94">
+      <c r="E49" s="88">
         <v>613259.1585891473</v>
       </c>
-      <c r="F49" s="94">
+      <c r="F49" s="88">
         <v>482846.76813979</v>
       </c>
-      <c r="G49" s="94">
+      <c r="G49" s="88">
         <v>21.26546153006204</v>
       </c>
-      <c r="H49" s="95">
+      <c r="H49" s="89">
         <v>48496</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="88">
         <v>10686</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="88">
         <v>532628.7281158532</v>
       </c>
-      <c r="K49" s="94">
+      <c r="K49" s="88">
         <v>867311.1966243149</v>
       </c>
-      <c r="L49" s="96">
+      <c r="L49" s="90">
         <v>-62.8359776410078</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="57"/>
-      <c r="B50" s="93" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="88">
         <v>11722</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="88">
         <v>21225</v>
       </c>
-      <c r="E50" s="94" t="s">
+      <c r="E50" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="94" t="s">
+      <c r="F50" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="94" t="s">
+      <c r="G50" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="95">
+      <c r="H50" s="89">
         <v>5684</v>
       </c>
-      <c r="I50" s="94">
+      <c r="I50" s="88">
         <v>8064</v>
       </c>
-      <c r="J50" s="94" t="s">
+      <c r="J50" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="94" t="s">
+      <c r="K50" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="L50" s="96" t="s">
+      <c r="L50" s="90" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A51" s="1"/>
-      <c r="B51" s="97" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="98"/>
-      <c r="L51" s="99"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="13.5" customFormat="1" s="9">
-      <c r="A52" s="1"/>
-      <c r="B52" s="97" t="s">
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="13.5" customFormat="1" s="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="99"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A53" s="1"/>
-      <c r="B53" s="97" t="s">
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="93"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="99"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="13.5" customFormat="1" s="9">
-      <c r="A54" s="1"/>
-      <c r="B54" s="97" t="s">
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="93"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="13.5" customFormat="1" s="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="99"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="93"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="57"/>
-      <c r="B55" s="100" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="102"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="96"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="57"/>
-      <c r="B56" s="100" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="102"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="96"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="57"/>
-      <c r="B57" s="100" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="102"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="96"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="57"/>
-      <c r="B58" s="100" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="102"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="96"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="57"/>
-      <c r="B59" s="100" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="102"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="103" t="s">
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="96"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="105"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="99"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="57"/>
-      <c r="B61" s="106" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="108"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="102"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="57"/>
-      <c r="B62" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="102"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5880,30 +5809,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="54" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="54" width="62.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="54" width="2.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="54" width="55.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="54" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="54" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="54" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="54" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="62.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="53" width="2.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="53" width="55.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -5913,10 +5842,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -5926,320 +5855,320 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15" customFormat="1" s="9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15" customFormat="1" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="35" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="29" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="29" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A18" s="1"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="35" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="29" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="46" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="53" t="s">
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="1"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6271,19 +6200,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="54" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="55" width="62.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="55" width="2.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="55" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="55" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="55" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="55" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="55" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="52" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="62.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="53" width="2.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="53" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6291,10 +6220,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6304,10 +6233,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6317,318 +6246,318 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15" customFormat="1" s="9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15" customFormat="1" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75" customFormat="1" s="9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="35" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="29" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="29" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A18" s="1"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="35" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="12" customFormat="1" s="9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="29" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="12" customFormat="1" s="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="46" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="1"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
